--- a/public/templates/student.xlsx
+++ b/public/templates/student.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\st.register-internship\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hueph\Desktop\Excel mới\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$M$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$M$75</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="385">
   <si>
     <t>6661204</t>
   </si>
@@ -936,14 +936,279 @@
     <t>Số điện thoại</t>
   </si>
   <si>
-    <t>SINH VIÊN ĐỦ ĐIỀU KIỆN THỰC TẬP NGHỀ NGHIỆP</t>
+    <t>Trương Tuấn</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/50
+(Bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/10
+(Bắt buộc)</t>
+  </si>
+  <si>
+    <t>dd/MM/yy</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/20
+(Bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/255
+(Bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểu số nguyên
+(Bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/255
+(Không bắt buộc)</t>
+  </si>
+  <si>
+    <t>dd/MM/yy
+(Bắt buộc)</t>
+  </si>
+  <si>
+    <t>0912121212</t>
+  </si>
+  <si>
+    <t>0912121213</t>
+  </si>
+  <si>
+    <t>0912121214</t>
+  </si>
+  <si>
+    <t>0912121215</t>
+  </si>
+  <si>
+    <t>0912121216</t>
+  </si>
+  <si>
+    <t>0912121217</t>
+  </si>
+  <si>
+    <t>0912121218</t>
+  </si>
+  <si>
+    <t>0912121219</t>
+  </si>
+  <si>
+    <t>0912121220</t>
+  </si>
+  <si>
+    <t>0912121221</t>
+  </si>
+  <si>
+    <t>0912121222</t>
+  </si>
+  <si>
+    <t>0912121223</t>
+  </si>
+  <si>
+    <t>0912121224</t>
+  </si>
+  <si>
+    <t>0912121225</t>
+  </si>
+  <si>
+    <t>0912121226</t>
+  </si>
+  <si>
+    <t>0912121227</t>
+  </si>
+  <si>
+    <t>0912121228</t>
+  </si>
+  <si>
+    <t>0912121229</t>
+  </si>
+  <si>
+    <t>0912121230</t>
+  </si>
+  <si>
+    <t>0912121231</t>
+  </si>
+  <si>
+    <t>0912121232</t>
+  </si>
+  <si>
+    <t>0912121233</t>
+  </si>
+  <si>
+    <t>0912121234</t>
+  </si>
+  <si>
+    <t>0912121235</t>
+  </si>
+  <si>
+    <t>0912121236</t>
+  </si>
+  <si>
+    <t>0912121237</t>
+  </si>
+  <si>
+    <t>0912121238</t>
+  </si>
+  <si>
+    <t>0912121239</t>
+  </si>
+  <si>
+    <t>0912121240</t>
+  </si>
+  <si>
+    <t>0912121241</t>
+  </si>
+  <si>
+    <t>0912121242</t>
+  </si>
+  <si>
+    <t>0912121243</t>
+  </si>
+  <si>
+    <t>0912121244</t>
+  </si>
+  <si>
+    <t>0912121245</t>
+  </si>
+  <si>
+    <t>0912121246</t>
+  </si>
+  <si>
+    <t>0912121247</t>
+  </si>
+  <si>
+    <t>0912121248</t>
+  </si>
+  <si>
+    <t>0912121249</t>
+  </si>
+  <si>
+    <t>0912121250</t>
+  </si>
+  <si>
+    <t>0912121251</t>
+  </si>
+  <si>
+    <t>0912121252</t>
+  </si>
+  <si>
+    <t>0912121253</t>
+  </si>
+  <si>
+    <t>0912121254</t>
+  </si>
+  <si>
+    <t>0912121255</t>
+  </si>
+  <si>
+    <t>0912121256</t>
+  </si>
+  <si>
+    <t>0912121257</t>
+  </si>
+  <si>
+    <t>0912121258</t>
+  </si>
+  <si>
+    <t>0912121259</t>
+  </si>
+  <si>
+    <t>0912121260</t>
+  </si>
+  <si>
+    <t>0912121261</t>
+  </si>
+  <si>
+    <t>0912121262</t>
+  </si>
+  <si>
+    <t>0912121263</t>
+  </si>
+  <si>
+    <t>0912121264</t>
+  </si>
+  <si>
+    <t>0912121265</t>
+  </si>
+  <si>
+    <t>0912121266</t>
+  </si>
+  <si>
+    <t>0912121267</t>
+  </si>
+  <si>
+    <t>0912121268</t>
+  </si>
+  <si>
+    <t>0912121269</t>
+  </si>
+  <si>
+    <t>0912121270</t>
+  </si>
+  <si>
+    <t>0912121271</t>
+  </si>
+  <si>
+    <t>0912121272</t>
+  </si>
+  <si>
+    <t>0912121273</t>
+  </si>
+  <si>
+    <t>0912121274</t>
+  </si>
+  <si>
+    <t>0912121275</t>
+  </si>
+  <si>
+    <t>0912121276</t>
+  </si>
+  <si>
+    <t>0912121277</t>
+  </si>
+  <si>
+    <t>0912121278</t>
+  </si>
+  <si>
+    <t>0912121279</t>
+  </si>
+  <si>
+    <t>0912121280</t>
+  </si>
+  <si>
+    <t>0912121281</t>
+  </si>
+  <si>
+    <t>0912121282</t>
+  </si>
+  <si>
+    <t>0912121283</t>
+  </si>
+  <si>
+    <t>0912121284</t>
+  </si>
+  <si>
+    <t>0912121285</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/10
+(Không bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/50
+(Không bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/ 10
+(Bắt buộc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,13 +1362,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1291,12 +1549,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1441,15 +1699,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1498,7 +1747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1509,22 +1758,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1538,11 +1777,30 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1868,130 +2126,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="18.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="5"/>
-    <col min="6" max="7" width="11.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13" style="5" customWidth="1"/>
-    <col min="10" max="10" width="42.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="43.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="14.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12" style="4" customWidth="1"/>
+    <col min="10" max="10" width="42.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="43.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-    </row>
-    <row r="3" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="1" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G2" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I2" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K2" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L2" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M2" s="7" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K3" s="3">
+        <v>87</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>309</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>287</v>
       </c>
       <c r="K4" s="3">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>289</v>
@@ -2002,35 +2310,35 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>310</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>287</v>
       </c>
       <c r="K5" s="3">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>289</v>
@@ -2041,35 +2349,35 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>311</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>287</v>
       </c>
       <c r="K6" s="3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>289</v>
@@ -2080,35 +2388,35 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>312</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>287</v>
       </c>
       <c r="K7" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>289</v>
@@ -2117,79 +2425,79 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="1" t="s">
+    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="K8" s="3">
-        <v>80</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="K8" s="16">
+        <v>83</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>314</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>287</v>
+        <v>211</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="K9" s="3">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>281</v>
@@ -2197,113 +2505,113 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="K10" s="3">
-        <v>76</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="K10" s="16">
+        <v>73</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>281</v>
+      <c r="M10" s="14" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="K11" s="10">
-        <v>73</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="K11" s="3">
+        <v>63</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>283</v>
+      <c r="M11" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>317</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>288</v>
       </c>
       <c r="K12" s="3">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>282</v>
@@ -2314,35 +2622,35 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>318</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>288</v>
       </c>
       <c r="K13" s="3">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>282</v>
@@ -2353,35 +2661,35 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>288</v>
       </c>
       <c r="K14" s="3">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>282</v>
@@ -2392,74 +2700,74 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>288</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="K15" s="3">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="M15" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>321</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="G16" s="6"/>
       <c r="H16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>290</v>
       </c>
       <c r="K16" s="3">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>291</v>
@@ -2470,35 +2778,35 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>322</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>290</v>
       </c>
       <c r="K17" s="3">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>291</v>
@@ -2509,35 +2817,35 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="E18" s="19" t="s">
+        <v>323</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="6" t="s">
         <v>290</v>
       </c>
       <c r="K18" s="3">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>291</v>
@@ -2548,35 +2856,35 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="6" t="s">
         <v>290</v>
       </c>
       <c r="K19" s="3">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>291</v>
@@ -2587,35 +2895,35 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>325</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>290</v>
       </c>
       <c r="K20" s="3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>291</v>
@@ -2626,35 +2934,35 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>326</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="6" t="s">
         <v>290</v>
       </c>
       <c r="K21" s="3">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>291</v>
@@ -2665,35 +2973,35 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>327</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="6" t="s">
         <v>290</v>
       </c>
       <c r="K22" s="3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>291</v>
@@ -2704,35 +3012,35 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="6" t="s">
         <v>290</v>
       </c>
       <c r="K23" s="3">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>291</v>
@@ -2743,38 +3051,38 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="K24" s="3">
         <v>85</v>
       </c>
-      <c r="D24" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="K24" s="3">
-        <v>91</v>
-      </c>
       <c r="L24" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>281</v>
@@ -2782,35 +3090,35 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E25" s="19" t="s">
+        <v>330</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="6" t="s">
         <v>292</v>
       </c>
       <c r="K25" s="3">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>284</v>
@@ -2821,35 +3129,35 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>331</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="6" t="s">
         <v>292</v>
       </c>
       <c r="K26" s="3">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>284</v>
@@ -2860,35 +3168,35 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>332</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="6" t="s">
         <v>292</v>
       </c>
       <c r="K27" s="3">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>284</v>
@@ -2899,35 +3207,35 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>333</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="6" t="s">
         <v>292</v>
       </c>
       <c r="K28" s="3">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>284</v>
@@ -2938,35 +3246,35 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>334</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="6" t="s">
         <v>292</v>
       </c>
       <c r="K29" s="3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>284</v>
@@ -2977,31 +3285,31 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>335</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="8"/>
+        <v>113</v>
+      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="2" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="6" t="s">
         <v>292</v>
       </c>
       <c r="K30" s="3">
@@ -3016,35 +3324,35 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="6" t="s">
         <v>292</v>
       </c>
       <c r="K31" s="3">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>284</v>
@@ -3055,35 +3363,35 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="6" t="s">
         <v>292</v>
       </c>
       <c r="K32" s="3">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>284</v>
@@ -3094,35 +3402,35 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>338</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="6" t="s">
         <v>292</v>
       </c>
       <c r="K33" s="3">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>284</v>
@@ -3133,35 +3441,35 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>339</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="G34" s="6"/>
       <c r="H34" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="6" t="s">
         <v>292</v>
       </c>
       <c r="K34" s="3">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>284</v>
@@ -3172,35 +3480,35 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="6" t="s">
         <v>292</v>
       </c>
       <c r="K35" s="3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>284</v>
@@ -3211,35 +3519,35 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>341</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="2" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>292</v>
+        <v>209</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="K36" s="3">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>284</v>
@@ -3250,35 +3558,35 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="E37" s="19" t="s">
+        <v>342</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="2" t="s">
         <v>140</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="6" t="s">
         <v>293</v>
       </c>
       <c r="K37" s="3">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>284</v>
@@ -3289,35 +3597,35 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>145</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>343</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="G38" s="6"/>
       <c r="H38" s="2" t="s">
         <v>140</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="6" t="s">
         <v>293</v>
       </c>
       <c r="K38" s="3">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>284</v>
@@ -3328,35 +3636,35 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E39" s="19" t="s">
+        <v>344</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G39" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="G39" s="6"/>
       <c r="H39" s="2" t="s">
         <v>140</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="6" t="s">
         <v>293</v>
       </c>
       <c r="K39" s="3">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>284</v>
@@ -3367,35 +3675,35 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E40" s="19" t="s">
+        <v>345</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G40" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="G40" s="6"/>
       <c r="H40" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="6" t="s">
         <v>293</v>
       </c>
       <c r="K40" s="3">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>284</v>
@@ -3406,35 +3714,35 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E41" s="19" t="s">
+        <v>346</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="8"/>
+        <v>156</v>
+      </c>
+      <c r="G41" s="6"/>
       <c r="H41" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="6" t="s">
         <v>293</v>
       </c>
       <c r="K41" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>284</v>
@@ -3445,35 +3753,35 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E42" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="G42" s="6"/>
       <c r="H42" s="2" t="s">
         <v>157</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="6" t="s">
         <v>293</v>
       </c>
       <c r="K42" s="3">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>284</v>
@@ -3484,35 +3792,35 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>348</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G43" s="8"/>
+        <v>163</v>
+      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="6" t="s">
         <v>293</v>
       </c>
       <c r="K43" s="3">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>284</v>
@@ -3523,35 +3831,35 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>349</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G44" s="8"/>
+        <v>167</v>
+      </c>
+      <c r="G44" s="6"/>
       <c r="H44" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="6" t="s">
         <v>293</v>
       </c>
       <c r="K44" s="3">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>284</v>
@@ -3562,35 +3870,35 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>350</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G45" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="6" t="s">
         <v>293</v>
       </c>
       <c r="K45" s="3">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>284</v>
@@ -3601,35 +3909,35 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>351</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G46" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="G46" s="6"/>
       <c r="H46" s="2" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="6" t="s">
         <v>293</v>
       </c>
       <c r="K46" s="3">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>284</v>
@@ -3640,74 +3948,74 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>293</v>
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="K47" s="3">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="M47" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="E48" s="19" t="s">
+        <v>353</v>
+      </c>
       <c r="F48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G48" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="G48" s="5"/>
       <c r="H48" s="1" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K48" s="3">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>285</v>
@@ -3718,35 +4026,35 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>88</v>
+        <v>188</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>354</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G49" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="G49" s="5"/>
       <c r="H49" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K49" s="3">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>285</v>
@@ -3757,35 +4065,35 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D50" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E50" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="F50" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G50" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="G50" s="5"/>
       <c r="H50" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K50" s="3">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>285</v>
@@ -3796,35 +4104,35 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E51" s="19" t="s">
+        <v>356</v>
+      </c>
       <c r="F51" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G51" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K51" s="3">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>285</v>
@@ -3835,35 +4143,35 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E52" s="19" t="s">
+        <v>357</v>
+      </c>
       <c r="F52" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G52" s="7"/>
+        <v>194</v>
+      </c>
+      <c r="G52" s="5"/>
       <c r="H52" s="1" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K52" s="3">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>285</v>
@@ -3874,35 +4182,35 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E53" s="19" t="s">
+        <v>358</v>
+      </c>
       <c r="F53" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G53" s="7"/>
+        <v>197</v>
+      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="1" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K53" s="3">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>285</v>
@@ -3913,35 +4221,35 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D54" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>25</v>
+        <v>199</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G54" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="G54" s="5"/>
       <c r="H54" s="1" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K54" s="3">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>285</v>
@@ -3952,421 +4260,421 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>52</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D55" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>294</v>
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="K55" s="3">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="M55" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M55" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>53</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D56" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I56" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="5" t="s">
         <v>295</v>
       </c>
       <c r="K56" s="3">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="M56" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>54</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="I57" s="7" t="s">
+      <c r="E57" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="5" t="s">
         <v>295</v>
       </c>
       <c r="K57" s="3">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M57" s="7" t="s">
+      <c r="M57" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>55</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E58" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I58" s="7" t="s">
+      <c r="E58" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="J58" s="5" t="s">
         <v>295</v>
       </c>
       <c r="K58" s="3">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M58" s="7" t="s">
+      <c r="M58" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>56</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E59" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="I59" s="7" t="s">
+      <c r="E59" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J59" s="5" t="s">
         <v>295</v>
       </c>
       <c r="K59" s="3">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M59" s="7" t="s">
+      <c r="M59" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>57</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D60" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E60" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I60" s="7" t="s">
+      <c r="E60" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="5" t="s">
         <v>295</v>
       </c>
       <c r="K60" s="3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="M60" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>58</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D61" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E61" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="I61" s="7" t="s">
+      <c r="E61" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J61" s="5" t="s">
         <v>295</v>
       </c>
       <c r="K61" s="3">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M61" s="7" t="s">
+      <c r="M61" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>59</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D62" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E62" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="I62" s="7" t="s">
+      <c r="E62" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J62" s="5" t="s">
         <v>295</v>
       </c>
       <c r="K62" s="3">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M62" s="7" t="s">
+      <c r="M62" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>60</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E63" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I63" s="7" t="s">
+      <c r="E63" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="J63" s="5" t="s">
         <v>295</v>
       </c>
       <c r="K63" s="3">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M63" s="7" t="s">
+      <c r="M63" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>61</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D64" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E64" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7" t="s">
+      <c r="E64" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="5" t="s">
         <v>295</v>
       </c>
       <c r="K64" s="3">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M64" s="7" t="s">
+      <c r="M64" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>62</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D65" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E65" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7" t="s">
+      <c r="E65" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="5" t="s">
         <v>295</v>
       </c>
       <c r="K65" s="3">
@@ -4375,445 +4683,441 @@
       <c r="L65" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M65" s="7" t="s">
+      <c r="M65" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>63</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D66" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>295</v>
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="K66" s="3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M66" s="7" t="s">
+      <c r="M66" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>64</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D67" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E67" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7" t="s">
+      <c r="E67" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J67" s="5" t="s">
         <v>296</v>
       </c>
       <c r="K67" s="3">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M67" s="7" t="s">
+      <c r="M67" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>65</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D68" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="J68" s="5" t="s">
         <v>296</v>
       </c>
       <c r="K68" s="3">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M68" s="7" t="s">
+      <c r="M68" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>66</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D69" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E69" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I69" s="7" t="s">
+      <c r="E69" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J69" s="5" t="s">
         <v>296</v>
       </c>
       <c r="K69" s="3">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M69" s="7" t="s">
+      <c r="M69" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>67</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="5" t="s">
         <v>296</v>
       </c>
       <c r="K70" s="3">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M70" s="7" t="s">
+      <c r="M70" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>68</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D71" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="I71" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="J71" s="5" t="s">
         <v>296</v>
       </c>
       <c r="K71" s="3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M71" s="7" t="s">
+      <c r="M71" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>69</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D72" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="J72" s="5" t="s">
         <v>296</v>
       </c>
       <c r="K72" s="3">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M72" s="7" t="s">
+      <c r="M72" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>70</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D73" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="J73" s="5" t="s">
         <v>296</v>
       </c>
       <c r="K73" s="3">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M73" s="7" t="s">
+      <c r="M73" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>71</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D74" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J74" s="5" t="s">
         <v>296</v>
       </c>
       <c r="K74" s="3">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M74" s="7" t="s">
+      <c r="M74" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>72</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D75" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="5" t="s">
         <v>296</v>
       </c>
       <c r="K75" s="3">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M75" s="7" t="s">
+      <c r="M75" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>73</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D76" s="7">
-        <v>912121212</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>296</v>
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>6662012</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="K76" s="3">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="M76" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M76" s="1" t="s">
         <v>281</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:M76"/>
-  <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-  </mergeCells>
+  <autoFilter ref="A2:M75"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
